--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>467968.7708665584</v>
+        <v>437339.8706939356</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514374</v>
+        <v>925399.3994514375</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006066</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -701,28 +701,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V2" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>176.8004988171164</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,14 +893,14 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>116.325098768111</v>
       </c>
       <c r="W6" t="n">
-        <v>226.3582819636356</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,28 +1133,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>220.8837963815379</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1215,13 +1215,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>143.2718711279427</v>
+        <v>145.9272112248127</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,13 +1370,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="12">
@@ -1446,31 +1446,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>146.1932996118735</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>70.02511320453034</v>
       </c>
     </row>
     <row r="13">
@@ -1604,76 +1604,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="E14" t="n">
+      <c r="W14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F14" t="n">
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,10 +1692,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>97.34871926419865</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1752,7 +1752,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1935,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1980,10 +1980,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2078,76 +2078,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>125.5014267845669</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2217,16 +2217,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="22">
@@ -2236,70 +2236,70 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,76 +2315,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="G23" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="C23" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,31 +2394,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>111.1751113141406</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>32.91133865957915</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2457,10 +2457,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2515,13 +2515,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,28 +2634,28 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>62.13484214871502</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2688,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2767,10 +2767,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2798,13 +2798,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2843,22 +2843,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>164.8304714084692</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>84.05721994201966</v>
       </c>
     </row>
     <row r="31">
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,67 +3026,67 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,19 +3156,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>124.0051303913026</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3205,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,73 +3263,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>29.05241763862477</v>
+        <v>24.00235464595601</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3390,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3518,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>90.26012311038536</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,16 +3630,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3718,10 +3718,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,13 +3740,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3816,31 +3816,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>144.2395975293023</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>115.597388899159</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3995,10 +3995,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4028,13 +4028,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>102.3382270926889</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4053,19 +4053,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>119.3132525143586</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4101,22 +4101,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>135.4141600157168</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4349,25 +4349,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W2" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="W2" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
         <v>262.7299197543128</v>
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>342.668582052591</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>168.215552771464</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>510.883919072659</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>510.883919072659</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>510.883919072659</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>510.883919072659</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>510.883919072659</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>510.883919072659</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4510,28 +4510,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.23626279480629</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>559.1338160830064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V5" t="n">
-        <v>559.1338160830064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X5" t="n">
-        <v>315.6850394389064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.6850394389064</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>500.260318022696</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,16 +4650,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4680,16 +4680,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W6" t="n">
-        <v>500.260318022696</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X6" t="n">
-        <v>500.260318022696</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y6" t="n">
-        <v>500.260318022696</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E8" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>443.2712565396388</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C9" t="n">
-        <v>268.8182272585117</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D9" t="n">
-        <v>268.8182272585117</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E9" t="n">
-        <v>109.5807722530562</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4887,16 +4887,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4923,10 +4923,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>756.2056553051034</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>611.4865935597068</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X11" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y11" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="C12" t="n">
-        <v>816.3871559026832</v>
+        <v>315.5042433973647</v>
       </c>
       <c r="D12" t="n">
-        <v>667.4527462414319</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E12" t="n">
-        <v>508.2152912359765</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F12" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L12" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5154,16 +5154,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>658.1726096985599</v>
       </c>
     </row>
     <row r="13">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5312,16 +5312,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5331,40 +5331,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>118.3673154238052</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M15" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
         <v>542.809531908403</v>
@@ -5388,19 +5388,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W15" t="n">
-        <v>257.2326523711826</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X15" t="n">
-        <v>49.38115216564972</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="16">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5537,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V17" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W17" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X17" t="n">
-        <v>233.7108255783361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,19 +5595,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5628,16 +5628,16 @@
         <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="19">
@@ -5692,10 +5692,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>146.8043937272075</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>146.8043937272075</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>146.8043937272075</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>562.4161926976942</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>562.4161926976942</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>354.5646924921614</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>146.8043937272075</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -5987,7 +5987,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6026,10 +6026,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
         <v>477.1596022224361</v>
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>588.0815197256143</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="C24" t="n">
-        <v>588.0815197256143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>588.0815197256143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>428.8440647201588</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>282.3095067470438</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>143.5786813296593</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y24" t="n">
-        <v>756.2968567456824</v>
+        <v>131.5792353467183</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E25" t="n">
         <v>829.5248650203655</v>
@@ -6163,34 +6163,34 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>874.2758585542716</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6257,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>789.6041262295092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>640.669716568258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>481.4322615628025</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>334.8977035896875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>196.166878172303</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>82.7977425798823</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,16 +6312,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6336,19 +6336,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6415,7 +6415,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C29" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6491,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
         <v>19.28114311021272</v>
@@ -6543,13 +6543,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6570,22 +6570,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V30" t="n">
-        <v>193.7341723913397</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W30" t="n">
-        <v>193.7341723913397</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X30" t="n">
-        <v>193.7341723913397</v>
+        <v>104.1874258799295</v>
       </c>
       <c r="Y30" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6646,22 +6646,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6725,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>125.0774898247174</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6783,19 +6783,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>360.2295980564601</v>
+        <v>636.61285340344</v>
       </c>
       <c r="V33" t="n">
-        <v>125.0774898247174</v>
+        <v>401.4607451716973</v>
       </c>
       <c r="W33" t="n">
-        <v>125.0774898247174</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="X33" t="n">
-        <v>125.0774898247174</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y33" t="n">
-        <v>125.0774898247174</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>852.019301208126</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
         <v>829.5248650203655</v>
@@ -6889,19 +6889,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>49.38115216564972</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="C36" t="n">
-        <v>49.38115216564972</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="D36" t="n">
-        <v>49.38115216564972</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="E36" t="n">
-        <v>49.38115216564972</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="F36" t="n">
-        <v>49.38115216564972</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="G36" t="n">
-        <v>49.38115216564972</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="H36" t="n">
-        <v>49.38115216564972</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7017,16 +7017,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="Y36" t="n">
-        <v>49.38115216564972</v>
+        <v>44.28007843568128</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
         <v>19.28114311021272</v>
@@ -7114,31 +7114,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7202,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>111.2071172886402</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>562.4161926976942</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>562.4161926976942</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>318.9674160535941</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X39" t="n">
-        <v>318.9674160535941</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y39" t="n">
-        <v>111.2071172886402</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="40">
@@ -7366,7 +7366,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
         <v>19.28114311021272</v>
@@ -7448,13 +7448,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X41" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y41" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>694.6722890434539</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
-        <v>694.6722890434539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>577.9072497513741</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7512,28 +7512,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>862.8876260635219</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X42" t="n">
-        <v>862.8876260635219</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y42" t="n">
-        <v>862.8876260635219</v>
+        <v>339.4307355522512</v>
       </c>
     </row>
     <row r="43">
@@ -7597,16 +7597,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
         <v>19.28114311021272</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7676,22 +7676,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U44" t="n">
-        <v>122.6530896684844</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V44" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W44" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X44" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y44" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>447.97144466011</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>299.0370349988588</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>139.7995799934033</v>
       </c>
       <c r="F45" t="n">
         <v>19.28114311021272</v>
@@ -7734,7 +7734,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N45" t="n">
         <v>473.4149733950735</v>
@@ -7749,28 +7749,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>726.1056462496665</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>726.1056462496665</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>497.8820279860555</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V45" t="n">
-        <v>262.7299197543128</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W45" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X45" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="46">
@@ -7982,7 +7982,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,7 +8070,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8298,19 +8298,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,19 +8535,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,16 +9006,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9492,13 +9492,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -9960,10 +9960,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>186.8580120236956</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10431,13 +10431,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10665,19 +10665,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,13 +10914,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5030352242461</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,13 +11148,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11382,10 +11382,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -22589,28 +22589,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V2" t="n">
-        <v>243.3324706909737</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22623,31 +22623,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,13 +22671,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>23.36422987770516</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>312.8473232832599</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22805,7 +22805,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,10 +22826,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22838,19 +22838,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>51.00955661900684</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22860,19 +22860,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22884,7 +22884,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22920,16 +22920,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="W6" t="n">
-        <v>25.33670119728401</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22945,7 +22945,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>101.5905486845387</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22966,7 +22966,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23021,28 +23021,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>185.9922493601736</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23103,13 +23103,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23118,7 +23118,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23163,10 +23163,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>62.4108246493617</v>
+        <v>59.75548455249168</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23258,13 +23258,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23312,7 +23312,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,10 +23321,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="12">
@@ -23334,31 +23334,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>26.51519937644221</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23394,7 +23394,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>135.657582572774</v>
       </c>
     </row>
     <row r="13">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23552,16 +23552,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23580,10 +23580,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>47.72049312918523</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -23595,7 +23595,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23628,7 +23628,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23640,7 +23640,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23738,16 +23738,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>277.0585344134748</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23777,7 +23777,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23789,16 +23789,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23823,13 +23823,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>102.3410493332382</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23868,10 +23868,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23932,13 +23932,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,19 +24023,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24054,7 +24054,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>32.14365367083401</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,7 +24096,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24105,16 +24105,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,10 +24203,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,10 +24215,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,31 +24282,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>61.53338767417517</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>79.3241055769173</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,7 +24333,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24345,10 +24345,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24403,13 +24403,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24458,7 +24458,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24497,7 +24497,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24509,7 +24509,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,28 +24522,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>27.26179070270006</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24576,19 +24576,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24655,10 +24655,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24686,13 +24686,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24731,22 +24731,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>169.3950043896394</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24810,22 +24810,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>67.97011574095609</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>121.6254758352847</v>
       </c>
     </row>
     <row r="31">
@@ -24886,7 +24886,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,10 +24923,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>206.5399494528818</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24965,16 +24965,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>306.5685030994106</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24996,7 +24996,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>67.9701157409561</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25008,7 +25008,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25044,19 +25044,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>101.9362516896722</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25093,13 +25093,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>270.8624047773015</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25199,25 +25199,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25251,7 +25251,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>60.3442152127903</v>
+        <v>65.39427820545907</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,22 +25278,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25354,13 +25354,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25394,7 +25394,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25406,13 +25406,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25442,10 +25442,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>51.00955661900684</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25454,10 +25454,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25470,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>82.44837587793037</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25488,10 +25488,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>53.98936737787663</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,16 +25518,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25606,10 +25606,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,13 +25628,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>183.9432522271564</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,31 +25704,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>22.29358612056504</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>31.84767666547977</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,10 +25752,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25837,7 +25837,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25883,10 +25883,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25916,13 +25916,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>225.414031377446</v>
+        <v>224.7433607383331</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25941,19 +25941,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>25.75595987902526</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25989,22 +25989,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>36.26901108812098</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490293.0738575747</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575743</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490293.0738575743</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490293.0738575743</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
   </sheetData>
@@ -26320,7 +26320,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="E2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="F2" t="n">
         <v>108004.4371453661</v>
@@ -26329,10 +26329,10 @@
         <v>108004.437145366</v>
       </c>
       <c r="H2" t="n">
+        <v>108004.4371453661</v>
+      </c>
+      <c r="I2" t="n">
         <v>108004.437145366</v>
-      </c>
-      <c r="I2" t="n">
-        <v>108004.4371453661</v>
       </c>
       <c r="J2" t="n">
         <v>108004.437145366</v>
@@ -26344,7 +26344,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="M2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="N2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>13253.87401588902</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-34300.13716583236</v>
+        <v>-37960.95279092419</v>
       </c>
       <c r="C6" t="n">
-        <v>46469.29436571533</v>
+        <v>42808.47874062354</v>
       </c>
       <c r="D6" t="n">
-        <v>46469.29436571536</v>
+        <v>42808.47874062353</v>
       </c>
       <c r="E6" t="n">
-        <v>80096.89436571536</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="F6" t="n">
-        <v>80096.89436571536</v>
+        <v>76436.07874062356</v>
       </c>
       <c r="G6" t="n">
-        <v>80096.89436571533</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="H6" t="n">
-        <v>80096.89436571536</v>
+        <v>76436.07874062355</v>
       </c>
       <c r="I6" t="n">
-        <v>80096.89436571539</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="J6" t="n">
-        <v>17036.95176660911</v>
+        <v>13376.13614151729</v>
       </c>
       <c r="K6" t="n">
-        <v>80096.89436571533</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="L6" t="n">
-        <v>80096.8943657153</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="M6" t="n">
-        <v>80096.89436571536</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="N6" t="n">
-        <v>80096.89436571533</v>
+        <v>76436.0787406235</v>
       </c>
       <c r="O6" t="n">
-        <v>80096.89436571533</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="P6" t="n">
-        <v>80096.89436571536</v>
+        <v>76436.07874062352</v>
       </c>
     </row>
   </sheetData>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,7 +34790,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O6" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35255,19 +35255,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35507,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36212,13 +36212,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>55.51629994036225</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37151,13 +37151,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37634,13 +37634,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>169.9067907798016</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37868,13 +37868,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38029,7 +38029,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38102,10 +38102,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N45" t="n">
         <v>217.7067518141195</v>
-      </c>
-      <c r="N45" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437339.8706939356</v>
+        <v>439044.6267082024</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514375</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -738,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>30.9518491405796</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -899,25 +901,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -972,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1032,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,64 +1135,64 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T8" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F8" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1224,10 +1226,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>62.88143347497289</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1278,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>145.9272112248127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1373,10 +1375,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1412,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1458,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1506,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>70.02511320453034</v>
+        <v>108.9193184962174</v>
       </c>
     </row>
     <row r="13">
@@ -1604,31 +1606,31 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>117.8074216906837</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>97.34871926419865</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1743,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1850,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
@@ -1859,10 +1861,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>62.4162677022923</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1923,19 +1925,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>35.00246782997241</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>241.0142888776591</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>30.86155971440648</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2293,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,7 +2332,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2360,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>111.1751113141406</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2412,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2448,22 +2450,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2482,49 +2484,49 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2564,61 +2566,61 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>23.81301614990503</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2682,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>169.9804588624395</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2767,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2798,58 +2800,58 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>23.81301614990503</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2874,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>108.2953254812187</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2937,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>84.05721994201966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2998,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3086,13 +3088,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3120,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3162,7 +3164,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>124.0051303913026</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3171,7 +3173,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>94.41048699370604</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -3323,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>24.00235464595601</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3390,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,13 +3407,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3466,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3524,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,19 +3547,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3645,7 +3647,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,7 +3742,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3752,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>144.2395975293023</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>111.1751113141406</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3882,7 +3884,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3983,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -4019,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>218.2545356023573</v>
       </c>
       <c r="V44" t="n">
-        <v>103.0088977318019</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4053,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>119.3132525143586</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4410,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4483,10 +4485,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C5" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4598,19 +4600,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4680,16 +4682,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>846.5570557448675</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>603.1082791007675</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>395.2567788952347</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.4964801302808</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>648.4405950311615</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="C9" t="n">
-        <v>473.9875657500345</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D9" t="n">
-        <v>325.0531560887832</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E9" t="n">
-        <v>165.8157010833278</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4893,7 +4895,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
         <v>894.6625969973069</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="Y9" t="n">
-        <v>816.6559320512295</v>
+        <v>900.5405560409666</v>
       </c>
     </row>
     <row r="10">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C11" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D11" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C11" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D11" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>489.9572726784918</v>
+        <v>685.8223048580254</v>
       </c>
       <c r="C12" t="n">
-        <v>315.5042433973647</v>
+        <v>511.3692755768984</v>
       </c>
       <c r="D12" t="n">
-        <v>166.5698337361135</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E12" t="n">
-        <v>166.5698337361135</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F12" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
         <v>20.03527576299844</v>
@@ -5121,22 +5123,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5154,16 +5156,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>658.1726096985599</v>
+        <v>854.0376418780934</v>
       </c>
     </row>
     <row r="13">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5303,25 +5305,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V14" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W14" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X14" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>277.6047704292607</v>
+        <v>845.059759863481</v>
       </c>
       <c r="C15" t="n">
-        <v>277.6047704292607</v>
+        <v>670.606730582354</v>
       </c>
       <c r="D15" t="n">
-        <v>277.6047704292607</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="E15" t="n">
-        <v>118.3673154238052</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F15" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
         <v>20.03527576299844</v>
@@ -5358,16 +5360,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O15" t="n">
         <v>781.4136778972854</v>
@@ -5391,16 +5393,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>485.4562706347935</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>277.6047704292607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>277.6047704292607</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>569.2254314512334</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F17" t="n">
-        <v>325.7766548071333</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>82.32787816303323</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>259.0600686093459</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>259.0600686093459</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>259.0600686093459</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>259.0600686093459</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
         <v>223.7040404982626</v>
@@ -5595,13 +5597,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
         <v>473.4149733950735</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5698,16 +5700,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X21" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5941,10 +5943,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
         <v>829.5248650203655</v>
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>131.5792353467183</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6075,13 +6077,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6098,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W24" t="n">
-        <v>547.1910343172051</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X24" t="n">
-        <v>339.3395341116723</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y24" t="n">
-        <v>131.5792353467183</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="27">
@@ -6279,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
         <v>19.28114311021272</v>
@@ -6306,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>792.3597223162528</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>590.1731276750188</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C29" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D29" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>128.6703607680094</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6549,16 +6551,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>555.4877027295624</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>312.0389260854624</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X30" t="n">
-        <v>104.1874258799295</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="31">
@@ -6646,16 +6648,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T32" t="n">
-        <v>527.5764290961142</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U32" t="n">
-        <v>284.1276524520142</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V32" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6783,19 +6785,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6810,19 +6812,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>636.61285340344</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>401.4607451716973</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>158.0119685275972</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>114.6452713866835</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U35" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V35" t="n">
-        <v>601.5428246748836</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W35" t="n">
-        <v>601.5428246748836</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X35" t="n">
-        <v>358.0940480307835</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y35" t="n">
-        <v>358.0940480307835</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>44.28007843568128</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C36" t="n">
-        <v>44.28007843568128</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>44.28007843568128</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>44.28007843568128</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>44.28007843568128</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>44.28007843568128</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>44.28007843568128</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7017,13 +7019,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>252.1315786412141</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>252.1315786412141</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X36" t="n">
-        <v>44.28007843568128</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y36" t="n">
-        <v>44.28007843568128</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
         <v>19.28114311021272</v>
@@ -7114,31 +7116,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.35113235729608</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U38" t="n">
-        <v>761.6974622895962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V38" t="n">
-        <v>761.6974622895962</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W38" t="n">
-        <v>518.2486856454962</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X38" t="n">
-        <v>274.7999090013961</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.35113235729608</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7263,13 +7265,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>487.8483949674443</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W39" t="n">
-        <v>55.04605772994853</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7363,10 +7365,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7442,19 +7444,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="C42" t="n">
         <v>19.28114311021272</v>
@@ -7491,16 +7493,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O42" t="n">
         <v>894.6625969973069</v>
@@ -7530,10 +7532,10 @@
         <v>547.1910343172051</v>
       </c>
       <c r="X42" t="n">
-        <v>547.1910343172051</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y42" t="n">
-        <v>339.4307355522512</v>
+        <v>131.5792353467183</v>
       </c>
     </row>
     <row r="43">
@@ -7597,7 +7599,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>243.9530410142718</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>243.9530410142718</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D44" t="n">
-        <v>243.9530410142718</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E44" t="n">
-        <v>243.9530410142718</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
         <v>31.35113235729608</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>591.4512093066566</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U44" t="n">
-        <v>348.0024326625565</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V44" t="n">
-        <v>243.9530410142718</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W44" t="n">
-        <v>243.9530410142718</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X44" t="n">
-        <v>243.9530410142718</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y44" t="n">
-        <v>243.9530410142718</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>622.424473941237</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>447.97144466011</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>299.0370349988588</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>139.7995799934033</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7731,16 +7733,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7752,25 +7754,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>790.6398109613051</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V45" t="n">
-        <v>790.6398109613051</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W45" t="n">
-        <v>790.6398109613051</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X45" t="n">
-        <v>790.6398109613051</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y45" t="n">
-        <v>790.6398109613051</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7982,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8058,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8216,10 +8218,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8295,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8456,7 +8458,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8541,10 +8543,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8769,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>184.6294155606472</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9006,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>184.6294155606472</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,7 +9494,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>382.6009056104135</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9723,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>382.1386950879875</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,7 +9734,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9954,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10197,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,7 +10433,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10443,10 +10445,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10911,16 +10913,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>369.031319612638</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11151,7 +11153,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11379,19 +11381,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>349.0484638974528</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22626,25 +22628,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>201.8487380088457</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22787,7 +22789,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22796,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22838,16 +22840,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>51.00955661900684</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22860,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22920,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>116.4754883813142</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23021,16 +23023,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23063,22 +23065,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23097,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -23112,10 +23114,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>37.27640067767025</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23166,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>59.75548455249168</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23261,10 +23263,10 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23318,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23346,16 +23348,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23394,7 +23396,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>135.657582572774</v>
+        <v>96.76337728108696</v>
       </c>
     </row>
     <row r="13">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23507,16 +23509,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>8.683973297415827</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23552,10 +23554,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>48.72576195918364</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>47.72049312918523</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23631,13 +23633,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23738,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
@@ -23747,10 +23749,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>277.0585344134748</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23777,7 +23779,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23811,19 +23813,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>102.3410493332382</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23938,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>152.5300167065108</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,16 +24022,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>128.71681180081</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>201.9390274350188</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24181,13 +24183,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,7 +24220,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24266,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>61.53338767417517</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24300,7 +24302,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>7.497060989136827</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24336,22 +24338,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24412,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24452,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>383.0630295918064</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,28 +24487,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24570,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>1.702712241398274</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24655,13 +24657,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24686,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,22 +24724,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>303.9392423202299</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24762,10 +24764,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>49.34975497418223</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24807,7 +24809,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>121.6254758352847</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24886,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24926,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24974,13 +24976,13 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>306.5685030994106</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>358.5380445222895</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25008,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25050,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>101.9362516896722</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25059,7 +25061,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>270.8624047773015</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25199,7 +25201,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25211,13 +25213,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>123.3973950460205</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25251,7 +25253,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>65.39427820545907</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25293,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25318,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25354,13 +25356,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25391,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>280.8531039918463</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25412,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>51.00955661900684</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25457,7 +25459,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25488,7 +25490,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>53.98936737787663</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25518,10 +25520,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25533,7 +25535,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25603,13 +25605,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,7 +25630,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>162.9782053421103</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25640,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25682,19 +25684,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>22.29358612056504</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>61.53338767417517</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25770,7 +25772,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25871,10 +25873,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25883,7 +25885,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25907,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>33.09111730547923</v>
       </c>
       <c r="V44" t="n">
-        <v>224.7433607383331</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25941,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>25.75595987902526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="16">
@@ -26314,10 +26316,10 @@
         <v>108004.4371453661</v>
       </c>
       <c r="C2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="D2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="E2" t="n">
         <v>108004.437145366</v>
@@ -26329,7 +26331,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="H2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="I2" t="n">
         <v>108004.437145366</v>
@@ -26338,10 +26340,10 @@
         <v>108004.437145366</v>
       </c>
       <c r="K2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="L2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="M2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37960.95279092419</v>
+        <v>-37960.95279092414</v>
       </c>
       <c r="C6" t="n">
-        <v>42808.47874062354</v>
+        <v>42808.47874062358</v>
       </c>
       <c r="D6" t="n">
-        <v>42808.47874062353</v>
+        <v>42808.47874062356</v>
       </c>
       <c r="E6" t="n">
-        <v>76436.07874062353</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="F6" t="n">
         <v>76436.07874062356</v>
@@ -26537,31 +26539,31 @@
         <v>76436.07874062352</v>
       </c>
       <c r="H6" t="n">
-        <v>76436.07874062355</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="I6" t="n">
-        <v>76436.07874062353</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="J6" t="n">
         <v>13376.13614151729</v>
       </c>
       <c r="K6" t="n">
+        <v>76436.07874062355</v>
+      </c>
+      <c r="L6" t="n">
+        <v>76436.07874062355</v>
+      </c>
+      <c r="M6" t="n">
         <v>76436.07874062353</v>
       </c>
-      <c r="L6" t="n">
-        <v>76436.07874062353</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>76436.07874062352</v>
-      </c>
-      <c r="N6" t="n">
-        <v>76436.0787406235</v>
       </c>
       <c r="O6" t="n">
         <v>76436.07874062352</v>
       </c>
       <c r="P6" t="n">
-        <v>76436.07874062352</v>
+        <v>76436.07874062353</v>
       </c>
     </row>
   </sheetData>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35261,10 +35263,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>43.28534947792182</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35489,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>46.78797658628819</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>46.78797658628819</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36212,7 +36214,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>240.0046611659691</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>240.0046611659691</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,7 +36454,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N27" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36917,19 +36919,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37163,10 +37165,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37631,16 +37633,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>226.4350751681936</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37871,7 +37873,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38029,7 +38031,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
